--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_SEA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_SEA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="273">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -803,6 +803,51 @@
   </si>
   <si>
     <t>Singapore</t>
+  </si>
+  <si>
+    <t>7774324219</t>
+  </si>
+  <si>
+    <t>9454875870</t>
+  </si>
+  <si>
+    <t>zgwsnn979843</t>
+  </si>
+  <si>
+    <t>2922925391</t>
+  </si>
+  <si>
+    <t>algcsr080974</t>
+  </si>
+  <si>
+    <t>5286389353</t>
+  </si>
+  <si>
+    <t>evliec294470</t>
+  </si>
+  <si>
+    <t>6256128830</t>
+  </si>
+  <si>
+    <t>joyfsa109729</t>
+  </si>
+  <si>
+    <t>7470098910</t>
+  </si>
+  <si>
+    <t>miusqc307389</t>
+  </si>
+  <si>
+    <t>8592046522</t>
+  </si>
+  <si>
+    <t>hcyfkc567563</t>
+  </si>
+  <si>
+    <t>9824427933</t>
+  </si>
+  <si>
+    <t>mnageq256303</t>
   </si>
 </sst>
 </file>
@@ -812,7 +857,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -855,6 +900,46 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1270,74 +1355,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="69" width="22.33203125" style="2" customWidth="1"/>
-    <col min="70" max="70" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="69" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="29.5" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1611,7 +1696,7 @@
         <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>91</v>
@@ -1725,8 +1810,8 @@
       <c r="AW2" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX2" s="1">
-        <v>2140999000</v>
+      <c r="AX2" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>110</v>
@@ -1828,7 +1913,7 @@
         <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>91</v>
@@ -1942,8 +2027,8 @@
       <c r="AW3" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX3" s="1">
-        <v>2140999000</v>
+      <c r="AX3" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>110</v>
@@ -2045,7 +2130,7 @@
         <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>91</v>
@@ -2159,8 +2244,8 @@
       <c r="AW4" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX4" s="1">
-        <v>2140999000</v>
+      <c r="AX4" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY4" s="12" t="s">
         <v>110</v>
@@ -2262,7 +2347,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>91</v>
@@ -2376,8 +2461,8 @@
       <c r="AW5" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX5" s="1">
-        <v>2140999000</v>
+      <c r="AX5" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY5" s="12" t="s">
         <v>110</v>
@@ -2479,7 +2564,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>91</v>
@@ -2593,8 +2678,8 @@
       <c r="AW6" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX6" s="1">
-        <v>2140999000</v>
+      <c r="AX6" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY6" s="12" t="s">
         <v>110</v>
@@ -2696,7 +2781,7 @@
         <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>91</v>
@@ -2810,8 +2895,8 @@
       <c r="AW7" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX7" s="1">
-        <v>2140999000</v>
+      <c r="AX7" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY7" s="12" t="s">
         <v>110</v>
@@ -2913,7 +2998,7 @@
         <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>91</v>
@@ -3026,8 +3111,8 @@
       <c r="AW8" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX8" s="1">
-        <v>2140999000</v>
+      <c r="AX8" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>110</v>
@@ -3125,7 +3210,7 @@
         <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>91</v>
@@ -3238,8 +3323,8 @@
       <c r="AW9" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX9" s="1">
-        <v>2140999000</v>
+      <c r="AX9" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>110</v>
@@ -3337,7 +3422,7 @@
         <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>91</v>
@@ -3450,8 +3535,8 @@
       <c r="AW10" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX10" s="1">
-        <v>2140999000</v>
+      <c r="AX10" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>110</v>
@@ -3549,7 +3634,7 @@
         <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>91</v>
@@ -3662,8 +3747,8 @@
       <c r="AW11" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX11" s="1">
-        <v>2140999000</v>
+      <c r="AX11" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>110</v>
@@ -3761,7 +3846,7 @@
         <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>91</v>
@@ -3874,8 +3959,8 @@
       <c r="AW12" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX12" s="1">
-        <v>2140999000</v>
+      <c r="AX12" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>110</v>
@@ -3973,7 +4058,7 @@
         <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>91</v>
@@ -4086,8 +4171,8 @@
       <c r="AW13" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX13" s="1">
-        <v>2140999000</v>
+      <c r="AX13" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>110</v>
@@ -4185,7 +4270,7 @@
         <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>91</v>
@@ -4301,8 +4386,8 @@
       <c r="AW14" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX14" s="1">
-        <v>2140999000</v>
+      <c r="AX14" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>110</v>
@@ -4400,7 +4485,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>91</v>
@@ -4516,8 +4601,8 @@
       <c r="AW15" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX15" s="1">
-        <v>2140999000</v>
+      <c r="AX15" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>110</v>
@@ -4615,7 +4700,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>91</v>
@@ -4731,8 +4816,8 @@
       <c r="AW16" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX16" s="1">
-        <v>2140999000</v>
+      <c r="AX16" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>110</v>
@@ -4830,7 +4915,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>91</v>
@@ -4943,8 +5028,8 @@
       <c r="AW17" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX17" s="1">
-        <v>2140999000</v>
+      <c r="AX17" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>110</v>
@@ -5042,7 +5127,7 @@
         <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>91</v>
@@ -5155,8 +5240,8 @@
       <c r="AW18" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX18" s="1">
-        <v>2140999000</v>
+      <c r="AX18" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY18" s="1" t="s">
         <v>110</v>
@@ -5254,7 +5339,7 @@
         <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>91</v>
@@ -5367,8 +5452,8 @@
       <c r="AW19" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX19" s="1">
-        <v>2140999000</v>
+      <c r="AX19" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>110</v>
@@ -5466,7 +5551,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>91</v>
@@ -5582,8 +5667,8 @@
       <c r="AW20" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX20" s="1">
-        <v>2140999000</v>
+      <c r="AX20" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>110</v>
@@ -5681,7 +5766,7 @@
         <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>91</v>
@@ -5797,8 +5882,8 @@
       <c r="AW21" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX21" s="1">
-        <v>2140999000</v>
+      <c r="AX21" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY21" s="1" t="s">
         <v>110</v>
@@ -5896,7 +5981,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>91</v>
@@ -6012,8 +6097,8 @@
       <c r="AW22" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX22" s="1">
-        <v>2140999000</v>
+      <c r="AX22" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>110</v>
@@ -6111,7 +6196,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>91</v>
@@ -6227,8 +6312,8 @@
       <c r="AW23" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX23" s="1">
-        <v>2140999000</v>
+      <c r="AX23" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY23" s="1" t="s">
         <v>110</v>
@@ -6326,7 +6411,7 @@
         <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>91</v>
@@ -6439,8 +6524,8 @@
       <c r="AW24" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX24" s="1">
-        <v>2140999000</v>
+      <c r="AX24" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>110</v>
@@ -6538,7 +6623,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>91</v>
@@ -6651,8 +6736,8 @@
       <c r="AW25" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX25" s="1">
-        <v>2140999000</v>
+      <c r="AX25" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>110</v>
@@ -6750,7 +6835,7 @@
         <v>140</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>91</v>
@@ -6863,8 +6948,8 @@
       <c r="AW26" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX26" s="1">
-        <v>2140999000</v>
+      <c r="AX26" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY26" s="1" t="s">
         <v>110</v>
@@ -6962,7 +7047,7 @@
         <v>140</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>91</v>
@@ -7075,8 +7160,8 @@
       <c r="AW27" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX27" s="1">
-        <v>2140999000</v>
+      <c r="AX27" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>110</v>
@@ -7174,7 +7259,7 @@
         <v>140</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>91</v>
@@ -7287,8 +7372,8 @@
       <c r="AW28" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX28" s="1">
-        <v>2140999000</v>
+      <c r="AX28" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>110</v>
@@ -7386,7 +7471,7 @@
         <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>91</v>
@@ -7502,8 +7587,8 @@
       <c r="AW29" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX29" s="1">
-        <v>2140999000</v>
+      <c r="AX29" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>110</v>
@@ -7601,7 +7686,7 @@
         <v>140</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>91</v>
@@ -7717,8 +7802,8 @@
       <c r="AW30" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX30" s="1">
-        <v>2140999000</v>
+      <c r="AX30" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>110</v>
@@ -7816,7 +7901,7 @@
         <v>140</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>91</v>
@@ -7932,8 +8017,8 @@
       <c r="AW31" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX31" s="1">
-        <v>2140999000</v>
+      <c r="AX31" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>110</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_SEA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_SEA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="277">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -848,6 +848,18 @@
   </si>
   <si>
     <t>mnageq256303</t>
+  </si>
+  <si>
+    <t>6303396972</t>
+  </si>
+  <si>
+    <t>pksiqk956114</t>
+  </si>
+  <si>
+    <t>1024537385</t>
+  </si>
+  <si>
+    <t>xgblhe028958</t>
   </si>
 </sst>
 </file>
@@ -857,7 +869,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -900,6 +912,16 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1696,7 +1718,7 @@
         <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>91</v>
@@ -1811,7 +1833,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>110</v>
@@ -1913,7 +1935,7 @@
         <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>91</v>
@@ -2028,7 +2050,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>110</v>
@@ -2130,7 +2152,7 @@
         <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>91</v>
@@ -2245,7 +2267,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY4" s="12" t="s">
         <v>110</v>
@@ -2347,7 +2369,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>91</v>
@@ -2462,7 +2484,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY5" s="12" t="s">
         <v>110</v>
@@ -2564,7 +2586,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>91</v>
@@ -2679,7 +2701,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY6" s="12" t="s">
         <v>110</v>
@@ -2781,7 +2803,7 @@
         <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>91</v>
@@ -2896,7 +2918,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY7" s="12" t="s">
         <v>110</v>
@@ -2998,7 +3020,7 @@
         <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>91</v>
@@ -3112,7 +3134,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>110</v>
@@ -3210,7 +3232,7 @@
         <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>91</v>
@@ -3324,7 +3346,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>110</v>
@@ -3422,7 +3444,7 @@
         <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>91</v>
@@ -3536,7 +3558,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>110</v>
@@ -3634,7 +3656,7 @@
         <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>91</v>
@@ -3748,7 +3770,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>110</v>
@@ -3846,7 +3868,7 @@
         <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>91</v>
@@ -3960,7 +3982,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>110</v>
@@ -4058,7 +4080,7 @@
         <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>91</v>
@@ -4172,7 +4194,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>110</v>
@@ -4270,7 +4292,7 @@
         <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>91</v>
@@ -4387,7 +4409,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>110</v>
@@ -4485,7 +4507,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>91</v>
@@ -4602,7 +4624,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>110</v>
@@ -4700,7 +4722,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>91</v>
@@ -4817,7 +4839,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>110</v>
@@ -4915,7 +4937,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>91</v>
@@ -5029,7 +5051,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>110</v>
@@ -5127,7 +5149,7 @@
         <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>91</v>
@@ -5241,7 +5263,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY18" s="1" t="s">
         <v>110</v>
@@ -5339,7 +5361,7 @@
         <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>91</v>
@@ -5453,7 +5475,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>110</v>
@@ -5551,7 +5573,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>91</v>
@@ -5668,7 +5690,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>110</v>
@@ -5766,7 +5788,7 @@
         <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>91</v>
@@ -5883,7 +5905,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY21" s="1" t="s">
         <v>110</v>
@@ -5981,7 +6003,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>91</v>
@@ -6098,7 +6120,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>110</v>
@@ -6196,7 +6218,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>91</v>
@@ -6313,7 +6335,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY23" s="1" t="s">
         <v>110</v>
@@ -6411,7 +6433,7 @@
         <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>91</v>
@@ -6525,7 +6547,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>110</v>
@@ -6623,7 +6645,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>91</v>
@@ -6737,7 +6759,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>110</v>
@@ -6835,7 +6857,7 @@
         <v>140</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>91</v>
@@ -6949,7 +6971,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY26" s="1" t="s">
         <v>110</v>
@@ -7047,7 +7069,7 @@
         <v>140</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>91</v>
@@ -7161,7 +7183,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>110</v>
@@ -7259,7 +7281,7 @@
         <v>140</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>91</v>
@@ -7373,7 +7395,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>110</v>
@@ -7471,7 +7493,7 @@
         <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>91</v>
@@ -7588,7 +7610,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>110</v>
@@ -7686,7 +7708,7 @@
         <v>140</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>91</v>
@@ -7803,7 +7825,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>110</v>
@@ -7901,7 +7923,7 @@
         <v>140</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>91</v>
@@ -8018,7 +8040,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>110</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_SEA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_SEA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="239">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -502,12 +502,6 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
@@ -523,21 +517,6 @@
     <t>NETPVIETINHPSW37</t>
   </si>
   <si>
-    <t>NETPVIETINHPSW38</t>
-  </si>
-  <si>
-    <t>NETPVIETINHPSW39</t>
-  </si>
-  <si>
-    <t>NETPVIETINHPSW40</t>
-  </si>
-  <si>
-    <t>NETPVIETINHPSW41</t>
-  </si>
-  <si>
-    <t>NETPVIETINHPSW42</t>
-  </si>
-  <si>
     <t>NETPVIETINHPSW43</t>
   </si>
   <si>
@@ -601,24 +580,6 @@
     <t>MY999998819</t>
   </si>
   <si>
-    <t>MY999998820</t>
-  </si>
-  <si>
-    <t>MY999998821</t>
-  </si>
-  <si>
-    <t>MY999998822</t>
-  </si>
-  <si>
-    <t>MY999998823</t>
-  </si>
-  <si>
-    <t>MY999998824</t>
-  </si>
-  <si>
-    <t>MY999998825</t>
-  </si>
-  <si>
     <t>MY999998826</t>
   </si>
   <si>
@@ -673,30 +634,6 @@
     <t>MY999998843</t>
   </si>
   <si>
-    <t>Afghanistan Sales</t>
-  </si>
-  <si>
-    <t>Bangladesh Sales</t>
-  </si>
-  <si>
-    <t>2046906739I10</t>
-  </si>
-  <si>
-    <t>2046906739I11</t>
-  </si>
-  <si>
-    <t>2046906739I12</t>
-  </si>
-  <si>
-    <t>2046906739I13</t>
-  </si>
-  <si>
-    <t>2046906739I14</t>
-  </si>
-  <si>
-    <t>2046906739I15</t>
-  </si>
-  <si>
     <t>2046906739I16</t>
   </si>
   <si>
@@ -751,12 +688,6 @@
     <t>2046906739I33</t>
   </si>
   <si>
-    <t>AFN</t>
-  </si>
-  <si>
-    <t>BDT</t>
-  </si>
-  <si>
     <t>BTN</t>
   </si>
   <si>
@@ -805,61 +736,16 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>7774324219</t>
-  </si>
-  <si>
-    <t>9454875870</t>
-  </si>
-  <si>
-    <t>zgwsnn979843</t>
-  </si>
-  <si>
-    <t>2922925391</t>
-  </si>
-  <si>
-    <t>algcsr080974</t>
-  </si>
-  <si>
-    <t>5286389353</t>
-  </si>
-  <si>
-    <t>evliec294470</t>
-  </si>
-  <si>
-    <t>6256128830</t>
-  </si>
-  <si>
-    <t>joyfsa109729</t>
-  </si>
-  <si>
-    <t>7470098910</t>
-  </si>
-  <si>
-    <t>miusqc307389</t>
-  </si>
-  <si>
-    <t>8592046522</t>
-  </si>
-  <si>
-    <t>hcyfkc567563</t>
-  </si>
-  <si>
-    <t>9824427933</t>
-  </si>
-  <si>
-    <t>mnageq256303</t>
-  </si>
-  <si>
-    <t>6303396972</t>
-  </si>
-  <si>
-    <t>pksiqk956114</t>
-  </si>
-  <si>
-    <t>1024537385</t>
-  </si>
-  <si>
-    <t>xgblhe028958</t>
+    <t>4764853846</t>
+  </si>
+  <si>
+    <t>mtolbo393310</t>
+  </si>
+  <si>
+    <t>3549843192</t>
+  </si>
+  <si>
+    <t>epilhz159885</t>
   </si>
 </sst>
 </file>
@@ -869,7 +755,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="8">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -912,51 +798,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1369,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA31"/>
+  <dimension ref="A1:CA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BQ8" sqref="BQ8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H8" sqref="A8:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1691,13 +1532,13 @@
         <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>137</v>
@@ -1718,7 +1559,7 @@
         <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>91</v>
@@ -1827,13 +1668,13 @@
         <v>42222</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW2" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>110</v>
@@ -1908,13 +1749,13 @@
         <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>137</v>
@@ -1935,7 +1776,7 @@
         <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>91</v>
@@ -2044,13 +1885,13 @@
         <v>42222</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW3" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>110</v>
@@ -2125,16 +1966,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>138</v>
@@ -2152,7 +1993,7 @@
         <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>91</v>
@@ -2261,13 +2102,13 @@
         <v>42222</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW4" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY4" s="12" t="s">
         <v>110</v>
@@ -2342,13 +2183,13 @@
         <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>137</v>
@@ -2369,7 +2210,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>91</v>
@@ -2384,7 +2225,7 @@
         <v>135</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>142</v>
@@ -2465,10 +2306,10 @@
         <v>3.82</v>
       </c>
       <c r="AQ5" s="12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="AR5" s="12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="AS5" s="14"/>
       <c r="AT5" s="17">
@@ -2478,13 +2319,13 @@
         <v>42222</v>
       </c>
       <c r="AV5" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW5" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY5" s="12" t="s">
         <v>110</v>
@@ -2536,10 +2377,10 @@
         <v>90</v>
       </c>
       <c r="BP5" s="14" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="BQ5" s="14" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="BR5" s="14" t="s">
         <v>148</v>
@@ -2559,13 +2400,13 @@
         <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>137</v>
@@ -2586,7 +2427,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>91</v>
@@ -2601,7 +2442,7 @@
         <v>135</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>142</v>
@@ -2682,10 +2523,10 @@
         <v>3.82</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="AR6" s="12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="AS6" s="14"/>
       <c r="AT6" s="17">
@@ -2695,13 +2536,13 @@
         <v>42222</v>
       </c>
       <c r="AV6" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW6" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY6" s="12" t="s">
         <v>110</v>
@@ -2753,10 +2594,10 @@
         <v>90</v>
       </c>
       <c r="BP6" s="14" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="BQ6" s="14" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="BR6" s="14" t="s">
         <v>148</v>
@@ -2776,16 +2617,16 @@
         <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>138</v>
@@ -2803,7 +2644,7 @@
         <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>91</v>
@@ -2818,7 +2659,7 @@
         <v>135</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>142</v>
@@ -2899,10 +2740,10 @@
         <v>3.82</v>
       </c>
       <c r="AQ7" s="12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="AR7" s="12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="AS7" s="14"/>
       <c r="AT7" s="17">
@@ -2912,13 +2753,13 @@
         <v>42222</v>
       </c>
       <c r="AV7" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW7" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY7" s="12" t="s">
         <v>110</v>
@@ -2970,10 +2811,10 @@
         <v>90</v>
       </c>
       <c r="BP7" s="14" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="BQ7" s="14" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="BR7" s="14" t="s">
         <v>148</v>
@@ -2993,16 +2834,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>105</v>
@@ -3020,7 +2861,7 @@
         <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>91</v>
@@ -3029,13 +2870,13 @@
         <v>117</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>153</v>
@@ -3086,10 +2927,10 @@
         <v>81</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>98</v>
@@ -3101,25 +2942,28 @@
         <v>152</v>
       </c>
       <c r="AL8" s="1">
-        <v>138.8835</v>
+        <v>191.52699999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>652.15790000000004</v>
+        <v>899.35720000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>3024884</v>
+        <v>4171460</v>
       </c>
       <c r="AO8" s="1">
-        <v>14204000</v>
+        <v>19588000</v>
       </c>
       <c r="AP8" s="1">
         <v>21780</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="AT8" s="17">
         <v>41852</v>
@@ -3128,13 +2972,13 @@
         <v>42222</v>
       </c>
       <c r="AV8" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AW8" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>110</v>
@@ -3173,10 +3017,10 @@
         <v>84</v>
       </c>
       <c r="BL8" s="13">
-        <v>3024884</v>
+        <v>4171460</v>
       </c>
       <c r="BM8" s="13">
-        <v>138.8835</v>
+        <v>191.52699999999999</v>
       </c>
       <c r="BN8" s="13">
         <v>0</v>
@@ -3185,13 +3029,13 @@
         <v>90</v>
       </c>
       <c r="BP8" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ8" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BR8" s="14" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="BS8" s="2" t="s">
         <v>155</v>
@@ -3205,16 +3049,16 @@
         <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>105</v>
@@ -3232,7 +3076,7 @@
         <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>91</v>
@@ -3241,13 +3085,13 @@
         <v>117</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>153</v>
@@ -3298,10 +3142,10 @@
         <v>81</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>98</v>
@@ -3313,25 +3157,28 @@
         <v>152</v>
       </c>
       <c r="AL9" s="1">
-        <v>138.8835</v>
+        <v>191.52699999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>652.15790000000004</v>
+        <v>899.35720000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>3024884</v>
+        <v>4171460</v>
       </c>
       <c r="AO9" s="1">
-        <v>14204000</v>
+        <v>19588000</v>
       </c>
       <c r="AP9" s="1">
         <v>21780</v>
       </c>
       <c r="AQ9" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="AR9" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="AT9" s="17">
         <v>41852</v>
@@ -3340,13 +3187,13 @@
         <v>42222</v>
       </c>
       <c r="AV9" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AW9" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>110</v>
@@ -3385,10 +3232,10 @@
         <v>84</v>
       </c>
       <c r="BL9" s="13">
-        <v>3024884</v>
+        <v>4171460</v>
       </c>
       <c r="BM9" s="13">
-        <v>138.8835</v>
+        <v>191.52699999999999</v>
       </c>
       <c r="BN9" s="13">
         <v>0</v>
@@ -3397,13 +3244,13 @@
         <v>90</v>
       </c>
       <c r="BP9" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ9" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BR9" s="14" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="BS9" s="2" t="s">
         <v>155</v>
@@ -3417,16 +3264,16 @@
         <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>105</v>
@@ -3444,7 +3291,7 @@
         <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>91</v>
@@ -3453,13 +3300,13 @@
         <v>117</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>153</v>
@@ -3510,10 +3357,10 @@
         <v>81</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>98</v>
@@ -3525,25 +3372,28 @@
         <v>152</v>
       </c>
       <c r="AL10" s="1">
-        <v>138.8835</v>
+        <v>191.52699999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>652.15790000000004</v>
+        <v>899.35720000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>3024884</v>
+        <v>4171460</v>
       </c>
       <c r="AO10" s="1">
-        <v>14204000</v>
+        <v>19588000</v>
       </c>
       <c r="AP10" s="1">
         <v>21780</v>
       </c>
       <c r="AQ10" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="AT10" s="17">
         <v>41852</v>
@@ -3552,13 +3402,13 @@
         <v>42222</v>
       </c>
       <c r="AV10" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AW10" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>110</v>
@@ -3597,10 +3447,10 @@
         <v>84</v>
       </c>
       <c r="BL10" s="13">
-        <v>3024884</v>
+        <v>4171460</v>
       </c>
       <c r="BM10" s="13">
-        <v>138.8835</v>
+        <v>191.52699999999999</v>
       </c>
       <c r="BN10" s="13">
         <v>0</v>
@@ -3609,13 +3459,13 @@
         <v>90</v>
       </c>
       <c r="BP10" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ10" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BR10" s="14" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="BS10" s="2" t="s">
         <v>155</v>
@@ -3629,16 +3479,16 @@
         <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>105</v>
@@ -3650,13 +3500,13 @@
         <v>107</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>91</v>
@@ -3665,22 +3515,22 @@
         <v>117</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="R11" s="1">
-        <v>2141815597</v>
+        <v>2142118435</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>92</v>
@@ -3737,25 +3587,25 @@
         <v>98</v>
       </c>
       <c r="AL11" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>-2.1399999999999999E-2</v>
       </c>
       <c r="AM11" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>147</v>
+        <v>-467</v>
       </c>
       <c r="AO11" s="1">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="1">
         <v>21780</v>
       </c>
       <c r="AQ11" s="12" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AR11" s="12" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AT11" s="17">
         <v>41852</v>
@@ -3764,13 +3614,13 @@
         <v>42222</v>
       </c>
       <c r="AV11" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AW11" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>110</v>
@@ -3779,10 +3629,10 @@
         <v>111</v>
       </c>
       <c r="BB11" s="1">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="BC11" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD11" s="2" t="s">
         <v>88</v>
@@ -3821,16 +3671,16 @@
         <v>90</v>
       </c>
       <c r="BP11" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ11" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BR11" s="14" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="BS11" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="BT11" s="1" t="s">
         <v>101</v>
@@ -3841,16 +3691,16 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>105</v>
@@ -3862,13 +3712,13 @@
         <v>107</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>91</v>
@@ -3877,22 +3727,22 @@
         <v>117</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="R12" s="1">
-        <v>2141815597</v>
+        <v>2142118435</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>92</v>
@@ -3949,25 +3799,25 @@
         <v>98</v>
       </c>
       <c r="AL12" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>-2.1399999999999999E-2</v>
       </c>
       <c r="AM12" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>147</v>
+        <v>-467</v>
       </c>
       <c r="AO12" s="1">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="1">
         <v>21780</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AR12" s="12" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AT12" s="17">
         <v>41852</v>
@@ -3976,13 +3826,13 @@
         <v>42222</v>
       </c>
       <c r="AV12" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW12" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>110</v>
@@ -3991,10 +3841,10 @@
         <v>111</v>
       </c>
       <c r="BB12" s="1">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="BC12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD12" s="2" t="s">
         <v>89</v>
@@ -4033,16 +3883,16 @@
         <v>90</v>
       </c>
       <c r="BP12" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ12" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BR12" s="14" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="BS12" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="BT12" s="1" t="s">
         <v>101</v>
@@ -4053,16 +3903,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>105</v>
@@ -4074,13 +3924,13 @@
         <v>107</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>91</v>
@@ -4089,22 +3939,22 @@
         <v>117</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="R13" s="1">
-        <v>2141815597</v>
+        <v>2142118435</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>92</v>
@@ -4161,25 +4011,25 @@
         <v>98</v>
       </c>
       <c r="AL13" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>-2.1399999999999999E-2</v>
       </c>
       <c r="AM13" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>147</v>
+        <v>-467</v>
       </c>
       <c r="AO13" s="1">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="1">
         <v>21780</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AT13" s="17">
         <v>41852</v>
@@ -4188,13 +4038,13 @@
         <v>42222</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW13" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>110</v>
@@ -4203,10 +4053,10 @@
         <v>111</v>
       </c>
       <c r="BB13" s="1">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="BC13" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD13" s="2" t="s">
         <v>112</v>
@@ -4245,16 +4095,16 @@
         <v>90</v>
       </c>
       <c r="BP13" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ13" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BR13" s="14" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="BS13" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="BT13" s="1" t="s">
         <v>101</v>
@@ -4265,16 +4115,16 @@
         <v>115</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>105</v>
@@ -4286,13 +4136,13 @@
         <v>107</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>91</v>
@@ -4310,13 +4160,13 @@
         <v>159</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="R14" s="1">
-        <v>2141815597</v>
+        <v>2142118435</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>92</v>
@@ -4358,10 +4208,10 @@
         <v>81</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>98</v>
@@ -4370,28 +4220,28 @@
         <v>99</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="AL14" s="1">
-        <v>191.52699999999999</v>
+        <v>1728.3641</v>
       </c>
       <c r="AM14" s="1">
-        <v>899.35720000000003</v>
+        <v>6811.0191999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>4171460</v>
+        <v>37643772</v>
       </c>
       <c r="AO14" s="1">
-        <v>19588000</v>
+        <v>148344000</v>
       </c>
       <c r="AP14" s="1">
         <v>21780</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AR14" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>104</v>
@@ -4403,13 +4253,13 @@
         <v>42222</v>
       </c>
       <c r="AV14" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW14" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>110</v>
@@ -4418,10 +4268,10 @@
         <v>111</v>
       </c>
       <c r="BB14" s="1">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="BC14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD14" s="2" t="s">
         <v>88</v>
@@ -4448,10 +4298,10 @@
         <v>84</v>
       </c>
       <c r="BL14" s="13">
-        <v>4171460</v>
+        <v>37643772</v>
       </c>
       <c r="BM14" s="13">
-        <v>191.52699999999999</v>
+        <v>1728.3641</v>
       </c>
       <c r="BN14" s="13">
         <v>0</v>
@@ -4460,16 +4310,16 @@
         <v>90</v>
       </c>
       <c r="BP14" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ14" s="14" t="s">
         <v>159</v>
       </c>
       <c r="BR14" s="14" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="BS14" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>101</v>
@@ -4480,16 +4330,16 @@
         <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>105</v>
@@ -4501,13 +4351,13 @@
         <v>107</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>91</v>
@@ -4525,13 +4375,13 @@
         <v>159</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="R15" s="1">
-        <v>2141815597</v>
+        <v>2142118435</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>92</v>
@@ -4573,10 +4423,10 @@
         <v>81</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>98</v>
@@ -4585,28 +4435,28 @@
         <v>99</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="AL15" s="1">
-        <v>191.52699999999999</v>
+        <v>1728.3641</v>
       </c>
       <c r="AM15" s="1">
-        <v>899.35720000000003</v>
+        <v>6811.0191999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>4171460</v>
+        <v>37643772</v>
       </c>
       <c r="AO15" s="1">
-        <v>19588000</v>
+        <v>148344000</v>
       </c>
       <c r="AP15" s="1">
         <v>21780</v>
       </c>
       <c r="AQ15" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AR15" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AS15" s="1" t="s">
         <v>104</v>
@@ -4618,13 +4468,13 @@
         <v>42222</v>
       </c>
       <c r="AV15" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW15" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>110</v>
@@ -4633,10 +4483,10 @@
         <v>111</v>
       </c>
       <c r="BB15" s="1">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="BC15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD15" s="2" t="s">
         <v>89</v>
@@ -4663,10 +4513,10 @@
         <v>84</v>
       </c>
       <c r="BL15" s="13">
-        <v>4171460</v>
+        <v>37643772</v>
       </c>
       <c r="BM15" s="13">
-        <v>191.52699999999999</v>
+        <v>1728.3641</v>
       </c>
       <c r="BN15" s="13">
         <v>0</v>
@@ -4675,16 +4525,16 @@
         <v>90</v>
       </c>
       <c r="BP15" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ15" s="14" t="s">
         <v>159</v>
       </c>
       <c r="BR15" s="14" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="BS15" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="BT15" s="1" t="s">
         <v>101</v>
@@ -4695,16 +4545,16 @@
         <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>105</v>
@@ -4716,13 +4566,13 @@
         <v>107</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>140</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>91</v>
@@ -4740,13 +4590,13 @@
         <v>159</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="R16" s="1">
-        <v>2141815597</v>
+        <v>2142118435</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>92</v>
@@ -4788,10 +4638,10 @@
         <v>81</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>98</v>
@@ -4800,28 +4650,28 @@
         <v>99</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="AL16" s="1">
-        <v>191.52699999999999</v>
+        <v>1728.3641</v>
       </c>
       <c r="AM16" s="1">
-        <v>899.35720000000003</v>
+        <v>6811.0191999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>4171460</v>
+        <v>37643772</v>
       </c>
       <c r="AO16" s="1">
-        <v>19588000</v>
+        <v>148344000</v>
       </c>
       <c r="AP16" s="1">
         <v>21780</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AS16" s="1" t="s">
         <v>104</v>
@@ -4833,13 +4683,13 @@
         <v>42222</v>
       </c>
       <c r="AV16" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW16" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>110</v>
@@ -4848,10 +4698,10 @@
         <v>111</v>
       </c>
       <c r="BB16" s="1">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="BC16" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD16" s="2" t="s">
         <v>112</v>
@@ -4878,10 +4728,10 @@
         <v>84</v>
       </c>
       <c r="BL16" s="13">
-        <v>4171460</v>
+        <v>37643772</v>
       </c>
       <c r="BM16" s="13">
-        <v>191.52699999999999</v>
+        <v>1728.3641</v>
       </c>
       <c r="BN16" s="13">
         <v>0</v>
@@ -4890,16 +4740,16 @@
         <v>90</v>
       </c>
       <c r="BP16" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ16" s="14" t="s">
         <v>159</v>
       </c>
       <c r="BR16" s="14" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="BS16" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="BT16" s="1" t="s">
         <v>101</v>
@@ -4910,16 +4760,16 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>105</v>
@@ -4937,7 +4787,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>91</v>
@@ -4946,16 +4796,16 @@
         <v>117</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R17" s="1">
         <v>2142118435</v>
@@ -4964,13 +4814,13 @@
         <v>121</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>95</v>
@@ -4985,7 +4835,7 @@
         <v>79</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>86</v>
@@ -5003,10 +4853,10 @@
         <v>81</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>98</v>
@@ -5015,28 +4865,31 @@
         <v>99</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="AL17" s="1">
-        <v>-2.1399999999999999E-2</v>
+        <v>1728.3641</v>
       </c>
       <c r="AM17" s="1">
-        <v>0</v>
+        <v>6811.0191999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>-467</v>
+        <v>37643772</v>
       </c>
       <c r="AO17" s="1">
-        <v>0</v>
+        <v>148344000</v>
       </c>
       <c r="AP17" s="1">
         <v>21780</v>
       </c>
       <c r="AQ17" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="AR17" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="AT17" s="17">
         <v>41852</v>
@@ -5045,13 +4898,13 @@
         <v>42222</v>
       </c>
       <c r="AV17" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AW17" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>110</v>
@@ -5081,19 +4934,19 @@
         <v>82</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BL17" s="13">
-        <v>0</v>
+        <v>14353566</v>
       </c>
       <c r="BM17" s="13">
-        <v>0</v>
+        <v>659.02499999999998</v>
       </c>
       <c r="BN17" s="13">
         <v>0</v>
@@ -5102,16 +4955,16 @@
         <v>90</v>
       </c>
       <c r="BP17" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ17" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BR17" s="14" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="BS17" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BT17" s="1" t="s">
         <v>101</v>
@@ -5122,16 +4975,16 @@
         <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>105</v>
@@ -5149,7 +5002,7 @@
         <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>91</v>
@@ -5158,22 +5011,22 @@
         <v>117</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R18" s="1">
-        <v>2142118435</v>
+        <v>2142118436</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>92</v>
@@ -5215,10 +5068,10 @@
         <v>81</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>98</v>
@@ -5227,28 +5080,28 @@
         <v>99</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="AL18" s="1">
-        <v>-2.1399999999999999E-2</v>
+        <v>659.02499999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>2597.2451000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>-467</v>
+        <v>14353566</v>
       </c>
       <c r="AO18" s="1">
-        <v>0</v>
+        <v>56568000</v>
       </c>
       <c r="AP18" s="1">
         <v>21780</v>
       </c>
       <c r="AQ18" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="AR18" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="AT18" s="17">
         <v>41852</v>
@@ -5257,13 +5110,13 @@
         <v>42222</v>
       </c>
       <c r="AV18" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AW18" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY18" s="1" t="s">
         <v>110</v>
@@ -5293,19 +5146,19 @@
         <v>82</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BJ18" s="1" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BL18" s="13">
-        <v>0</v>
+        <v>14353566</v>
       </c>
       <c r="BM18" s="13">
-        <v>0</v>
+        <v>659.02499999999998</v>
       </c>
       <c r="BN18" s="13">
         <v>0</v>
@@ -5314,16 +5167,16 @@
         <v>90</v>
       </c>
       <c r="BP18" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ18" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BR18" s="14" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="BS18" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BT18" s="1" t="s">
         <v>101</v>
@@ -5334,16 +5187,16 @@
         <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>105</v>
@@ -5361,7 +5214,7 @@
         <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>91</v>
@@ -5370,22 +5223,22 @@
         <v>117</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R19" s="1">
-        <v>2142118435</v>
+        <v>2142118436</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>92</v>
@@ -5427,10 +5280,10 @@
         <v>81</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>98</v>
@@ -5439,28 +5292,28 @@
         <v>99</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="AL19" s="1">
-        <v>-2.1399999999999999E-2</v>
+        <v>659.02499999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>0</v>
+        <v>2597.2451000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>-467</v>
+        <v>14353566</v>
       </c>
       <c r="AO19" s="1">
-        <v>0</v>
+        <v>56568000</v>
       </c>
       <c r="AP19" s="1">
         <v>21780</v>
       </c>
       <c r="AQ19" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="AR19" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="AT19" s="17">
         <v>41852</v>
@@ -5469,13 +5322,13 @@
         <v>42222</v>
       </c>
       <c r="AV19" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AW19" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>110</v>
@@ -5505,19 +5358,19 @@
         <v>82</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BJ19" s="1" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="BK19" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BL19" s="13">
-        <v>0</v>
+        <v>14353566</v>
       </c>
       <c r="BM19" s="13">
-        <v>0</v>
+        <v>659.02499999999998</v>
       </c>
       <c r="BN19" s="13">
         <v>0</v>
@@ -5526,16 +5379,16 @@
         <v>90</v>
       </c>
       <c r="BP19" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="BQ19" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BR19" s="14" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="BS19" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BT19" s="1" t="s">
         <v>101</v>
@@ -5546,16 +5399,16 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>105</v>
@@ -5573,7 +5426,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>91</v>
@@ -5582,22 +5435,22 @@
         <v>117</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R20" s="1">
-        <v>2142118435</v>
+        <v>2142118436</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>92</v>
@@ -5639,10 +5492,10 @@
         <v>81</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>98</v>
@@ -5651,31 +5504,28 @@
         <v>99</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AL20" s="1">
-        <v>1728.3641</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="AM20" s="1">
-        <v>6811.0191999999997</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="1">
-        <v>37643772</v>
+        <v>-108</v>
       </c>
       <c r="AO20" s="1">
-        <v>148344000</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="1">
         <v>21780</v>
       </c>
       <c r="AQ20" s="12" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="AR20" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="AT20" s="17">
         <v>41852</v>
@@ -5684,13 +5534,13 @@
         <v>42222</v>
       </c>
       <c r="AV20" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AW20" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>110</v>
@@ -5720,19 +5570,19 @@
         <v>82</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BL20" s="13">
-        <v>37643772</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="13">
-        <v>1728.3641</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="13">
         <v>0</v>
@@ -5741,16 +5591,16 @@
         <v>90</v>
       </c>
       <c r="BP20" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ20" s="14" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="BQ20" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="BR20" s="14" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="BS20" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BT20" s="1" t="s">
         <v>101</v>
@@ -5761,16 +5611,16 @@
         <v>115</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>105</v>
@@ -5788,7 +5638,7 @@
         <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>91</v>
@@ -5797,22 +5647,22 @@
         <v>117</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R21" s="1">
-        <v>2142118435</v>
+        <v>2142118436</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>92</v>
@@ -5854,10 +5704,10 @@
         <v>81</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>98</v>
@@ -5866,31 +5716,28 @@
         <v>99</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AL21" s="1">
-        <v>1728.3641</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="AM21" s="1">
-        <v>6811.0191999999997</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>37643772</v>
+        <v>-108</v>
       </c>
       <c r="AO21" s="1">
-        <v>148344000</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="1">
         <v>21780</v>
       </c>
       <c r="AQ21" s="12" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="AR21" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="AT21" s="17">
         <v>41852</v>
@@ -5899,13 +5746,13 @@
         <v>42222</v>
       </c>
       <c r="AV21" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW21" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY21" s="1" t="s">
         <v>110</v>
@@ -5935,19 +5782,19 @@
         <v>82</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BL21" s="13">
-        <v>37643772</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="13">
-        <v>1728.3641</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="13">
         <v>0</v>
@@ -5956,16 +5803,16 @@
         <v>90</v>
       </c>
       <c r="BP21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ21" s="14" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="BQ21" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="BR21" s="14" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="BS21" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BT21" s="1" t="s">
         <v>101</v>
@@ -5976,16 +5823,16 @@
         <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>105</v>
@@ -6003,7 +5850,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>91</v>
@@ -6012,22 +5859,22 @@
         <v>117</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R22" s="1">
-        <v>2142118435</v>
+        <v>2142118436</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>92</v>
@@ -6069,10 +5916,10 @@
         <v>81</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>98</v>
@@ -6081,31 +5928,28 @@
         <v>99</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AL22" s="1">
-        <v>1728.3641</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="AM22" s="1">
-        <v>6811.0191999999997</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="1">
-        <v>37643772</v>
+        <v>-108</v>
       </c>
       <c r="AO22" s="1">
-        <v>148344000</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="1">
         <v>21780</v>
       </c>
       <c r="AQ22" s="12" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="AR22" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="AT22" s="17">
         <v>41852</v>
@@ -6114,13 +5958,13 @@
         <v>42222</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW22" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>110</v>
@@ -6150,19 +5994,19 @@
         <v>82</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BJ22" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BL22" s="13">
-        <v>37643772</v>
+        <v>0</v>
       </c>
       <c r="BM22" s="13">
-        <v>1728.3641</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="13">
         <v>0</v>
@@ -6171,16 +6015,16 @@
         <v>90</v>
       </c>
       <c r="BP22" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ22" s="14" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="BQ22" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="BR22" s="14" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="BS22" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BT22" s="1" t="s">
         <v>101</v>
@@ -6191,16 +6035,16 @@
         <v>115</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>105</v>
@@ -6218,7 +6062,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>91</v>
@@ -6227,31 +6071,31 @@
         <v>117</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>131</v>
       </c>
       <c r="R23" s="1">
-        <v>2142118435</v>
+        <v>2142118436</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>95</v>
@@ -6266,7 +6110,7 @@
         <v>79</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>86</v>
@@ -6284,10 +6128,10 @@
         <v>81</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>98</v>
@@ -6299,25 +6143,25 @@
         <v>130</v>
       </c>
       <c r="AL23" s="1">
-        <v>1728.3641</v>
+        <v>908.85040000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>6811.0191999999997</v>
+        <v>3581.8181</v>
       </c>
       <c r="AN23" s="1">
-        <v>37643772</v>
+        <v>19794762</v>
       </c>
       <c r="AO23" s="1">
-        <v>148344000</v>
+        <v>78012000</v>
       </c>
       <c r="AP23" s="1">
         <v>21780</v>
       </c>
-      <c r="AQ23" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="AR23" s="12" t="s">
-        <v>245</v>
+      <c r="AQ23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>104</v>
@@ -6329,13 +6173,13 @@
         <v>42222</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AW23" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY23" s="1" t="s">
         <v>110</v>
@@ -6374,10 +6218,10 @@
         <v>84</v>
       </c>
       <c r="BL23" s="13">
-        <v>14353566</v>
+        <v>19794762</v>
       </c>
       <c r="BM23" s="13">
-        <v>659.02499999999998</v>
+        <v>908.85040000000004</v>
       </c>
       <c r="BN23" s="13">
         <v>0</v>
@@ -6386,13 +6230,13 @@
         <v>90</v>
       </c>
       <c r="BP23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ23" s="14" t="s">
-        <v>156</v>
+        <v>181</v>
+      </c>
+      <c r="BQ23" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="BR23" s="14" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="BS23" s="2" t="s">
         <v>133</v>
@@ -6406,16 +6250,16 @@
         <v>115</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>105</v>
@@ -6433,7 +6277,7 @@
         <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>91</v>
@@ -6442,13 +6286,13 @@
         <v>117</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>131</v>
@@ -6499,10 +6343,10 @@
         <v>81</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>98</v>
@@ -6514,25 +6358,28 @@
         <v>130</v>
       </c>
       <c r="AL24" s="1">
-        <v>659.02499999999998</v>
+        <v>908.85040000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>2597.2451000000001</v>
+        <v>3581.8181</v>
       </c>
       <c r="AN24" s="1">
-        <v>14353566</v>
+        <v>19794762</v>
       </c>
       <c r="AO24" s="1">
-        <v>56568000</v>
+        <v>78012000</v>
       </c>
       <c r="AP24" s="1">
         <v>21780</v>
       </c>
-      <c r="AQ24" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="AR24" s="12" t="s">
-        <v>245</v>
+      <c r="AQ24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="AT24" s="17">
         <v>41852</v>
@@ -6541,13 +6388,13 @@
         <v>42222</v>
       </c>
       <c r="AV24" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AW24" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>110</v>
@@ -6586,10 +6433,10 @@
         <v>84</v>
       </c>
       <c r="BL24" s="13">
-        <v>14353566</v>
+        <v>19794762</v>
       </c>
       <c r="BM24" s="13">
-        <v>659.02499999999998</v>
+        <v>908.85040000000004</v>
       </c>
       <c r="BN24" s="13">
         <v>0</v>
@@ -6598,13 +6445,13 @@
         <v>90</v>
       </c>
       <c r="BP24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ24" s="14" t="s">
-        <v>156</v>
+        <v>181</v>
+      </c>
+      <c r="BQ24" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="BR24" s="14" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="BS24" s="2" t="s">
         <v>133</v>
@@ -6618,16 +6465,16 @@
         <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>105</v>
@@ -6645,7 +6492,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>91</v>
@@ -6654,13 +6501,13 @@
         <v>117</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>131</v>
@@ -6711,10 +6558,10 @@
         <v>81</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>98</v>
@@ -6726,25 +6573,28 @@
         <v>130</v>
       </c>
       <c r="AL25" s="1">
-        <v>659.02499999999998</v>
+        <v>908.85040000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>2597.2451000000001</v>
+        <v>3581.8181</v>
       </c>
       <c r="AN25" s="1">
-        <v>14353566</v>
+        <v>19794762</v>
       </c>
       <c r="AO25" s="1">
-        <v>56568000</v>
+        <v>78012000</v>
       </c>
       <c r="AP25" s="1">
         <v>21780</v>
       </c>
-      <c r="AQ25" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="AR25" s="12" t="s">
-        <v>245</v>
+      <c r="AQ25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="AT25" s="17">
         <v>41852</v>
@@ -6753,13 +6603,13 @@
         <v>42222</v>
       </c>
       <c r="AV25" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AW25" s="18">
         <v>10631042000</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>110</v>
@@ -6798,10 +6648,10 @@
         <v>84</v>
       </c>
       <c r="BL25" s="13">
-        <v>14353566</v>
+        <v>19794762</v>
       </c>
       <c r="BM25" s="13">
-        <v>659.02499999999998</v>
+        <v>908.85040000000004</v>
       </c>
       <c r="BN25" s="13">
         <v>0</v>
@@ -6810,1299 +6660,18 @@
         <v>90</v>
       </c>
       <c r="BP25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ25" s="14" t="s">
-        <v>156</v>
+        <v>181</v>
+      </c>
+      <c r="BQ25" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="BR25" s="14" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="BS25" s="2" t="s">
         <v>133</v>
       </c>
       <c r="BT25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:72">
-      <c r="A26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R26" s="1">
-        <v>2142118436</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>-108</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>21780</v>
-      </c>
-      <c r="AQ26" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR26" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT26" s="17">
-        <v>41852</v>
-      </c>
-      <c r="AU26" s="17">
-        <v>42222</v>
-      </c>
-      <c r="AV26" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW26" s="18">
-        <v>10631042000</v>
-      </c>
-      <c r="AX26" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB26" s="1">
-        <v>181</v>
-      </c>
-      <c r="BC26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BK26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL26" s="13">
-        <v>0</v>
-      </c>
-      <c r="BM26" s="13">
-        <v>0</v>
-      </c>
-      <c r="BN26" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ26" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR26" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="BS26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:72">
-      <c r="A27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R27" s="1">
-        <v>2142118436</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>-108</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="1">
-        <v>21780</v>
-      </c>
-      <c r="AQ27" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR27" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT27" s="17">
-        <v>41852</v>
-      </c>
-      <c r="AU27" s="17">
-        <v>42222</v>
-      </c>
-      <c r="AV27" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AW27" s="18">
-        <v>10631042000</v>
-      </c>
-      <c r="AX27" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB27" s="1">
-        <v>181</v>
-      </c>
-      <c r="BC27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BK27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL27" s="13">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="13">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ27" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR27" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="BS27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:72">
-      <c r="A28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R28" s="1">
-        <v>2142118436</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>-108</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>21780</v>
-      </c>
-      <c r="AQ28" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR28" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT28" s="17">
-        <v>41852</v>
-      </c>
-      <c r="AU28" s="17">
-        <v>42222</v>
-      </c>
-      <c r="AV28" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AW28" s="18">
-        <v>10631042000</v>
-      </c>
-      <c r="AX28" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB28" s="1">
-        <v>181</v>
-      </c>
-      <c r="BC28" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BK28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL28" s="13">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="13">
-        <v>0</v>
-      </c>
-      <c r="BN28" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ28" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR28" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="BS28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT28" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:72">
-      <c r="A29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R29" s="1">
-        <v>2142118436</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>908.85040000000004</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>3581.8181</v>
-      </c>
-      <c r="AN29" s="1">
-        <v>19794762</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>78012000</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>21780</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT29" s="17">
-        <v>41852</v>
-      </c>
-      <c r="AU29" s="17">
-        <v>42222</v>
-      </c>
-      <c r="AV29" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="AW29" s="18">
-        <v>10631042000</v>
-      </c>
-      <c r="AX29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB29" s="1">
-        <v>181</v>
-      </c>
-      <c r="BC29" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL29" s="13">
-        <v>19794762</v>
-      </c>
-      <c r="BM29" s="13">
-        <v>908.85040000000004</v>
-      </c>
-      <c r="BN29" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP29" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ29" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR29" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="BS29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT29" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:72">
-      <c r="A30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="O30" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R30" s="1">
-        <v>2142118436</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>908.85040000000004</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>3581.8181</v>
-      </c>
-      <c r="AN30" s="1">
-        <v>19794762</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>78012000</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>21780</v>
-      </c>
-      <c r="AQ30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT30" s="17">
-        <v>41852</v>
-      </c>
-      <c r="AU30" s="17">
-        <v>42222</v>
-      </c>
-      <c r="AV30" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW30" s="18">
-        <v>10631042000</v>
-      </c>
-      <c r="AX30" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB30" s="1">
-        <v>181</v>
-      </c>
-      <c r="BC30" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL30" s="13">
-        <v>19794762</v>
-      </c>
-      <c r="BM30" s="13">
-        <v>908.85040000000004</v>
-      </c>
-      <c r="BN30" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP30" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ30" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR30" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="BS30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT30" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:72">
-      <c r="A31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R31" s="1">
-        <v>2142118436</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>908.85040000000004</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>3581.8181</v>
-      </c>
-      <c r="AN31" s="1">
-        <v>19794762</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>78012000</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>21780</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT31" s="17">
-        <v>41852</v>
-      </c>
-      <c r="AU31" s="17">
-        <v>42222</v>
-      </c>
-      <c r="AV31" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW31" s="18">
-        <v>10631042000</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB31" s="1">
-        <v>181</v>
-      </c>
-      <c r="BC31" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL31" s="13">
-        <v>19794762</v>
-      </c>
-      <c r="BM31" s="13">
-        <v>908.85040000000004</v>
-      </c>
-      <c r="BN31" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ31" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR31" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="BS31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT31" s="1" t="s">
         <v>101</v>
       </c>
     </row>
